--- a/문서/자유수강권자 수강료 및 재료비 합계(3-9월).xlsx
+++ b/문서/자유수강권자 수강료 및 재료비 합계(3-9월).xlsx
@@ -1145,7 +1145,7 @@
         <v>597330</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1464,10 +1464,10 @@
         <v>7</v>
       </c>
       <c r="F31" s="2">
-        <v>666300</v>
+        <v>609700</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1628,7 +1628,7 @@
         <v>592410</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -2657,10 +2657,10 @@
         <v>7</v>
       </c>
       <c r="F2" s="4">
-        <v>666300</v>
+        <v>609700</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2683,7 +2683,7 @@
         <v>597330</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2706,7 +2706,7 @@
         <v>592410</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:7">
